--- a/Results/RiskTransfer/RiskTransfer_shareNew.xlsx
+++ b/Results/RiskTransfer/RiskTransfer_shareNew.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="long" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,21 +168,11 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +184,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,43 +1263,43 @@
     <row r="1" spans="1:6" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="8"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>2017</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>0</v>
       </c>
       <c r="D4" s="4">
@@ -1312,14 +1308,14 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>2020</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>0.23684666625179637</v>
       </c>
       <c r="D5" s="4">
@@ -1328,14 +1324,14 @@
       <c r="E5" s="4">
         <v>2.2936122572109674E-3</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>2025</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>0.47838639747075001</v>
       </c>
       <c r="D6" s="4">
@@ -1344,14 +1340,14 @@
       <c r="E6" s="4">
         <v>2.0392125023459287E-2</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>2030</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="11">
         <v>0.64577468297907747</v>
       </c>
       <c r="D7" s="4">
@@ -1360,14 +1356,14 @@
       <c r="E7" s="4">
         <v>5.5444369254356356E-2</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>2035</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="11">
         <v>0.77768077803986702</v>
       </c>
       <c r="D8" s="4">
@@ -1376,14 +1372,14 @@
       <c r="E8" s="4">
         <v>0.11106167324184227</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3">
         <v>2040</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="11">
         <v>0.88128950627756264</v>
       </c>
       <c r="D9" s="4">
@@ -1392,14 +1388,14 @@
       <c r="E9" s="4">
         <v>0.19396596859685045</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>2045</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="11">
         <v>0.9510153977911574</v>
       </c>
       <c r="D10" s="4">
@@ -1408,36 +1404,36 @@
       <c r="E10" s="4">
         <v>0.3104691733138466</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>2048</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="12">
         <v>0.9752726933810788</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0.96159239049503442</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>0.39524943537461055</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1445,7 +1441,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
